--- a/application/discipline_code/discipline_bank_updated.xlsx
+++ b/application/discipline_code/discipline_bank_updated.xlsx
@@ -1,47 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaarzumanan/analytics_backend/application/discipline_code/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45680A28-B5EC-3843-BF8F-125369AA48B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -75,24 +57,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -380,25 +421,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SUBFIELDCODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SUBFIELDNAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DEGREE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SUBJECT_CODE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SUBJECT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>COMPONENT</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SEM_INFO</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DIS_CODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>45.04.04</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Анализ культурных данных и визуализация/ Data, Culture and Visualization</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Магистр</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Креативные технологии</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Общеуниверситетские дисциплины мировоззренческого модуля</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4,0,0,0,0,0,0,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>07.0.8.0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>45.04.04</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Анализ культурных данных и визуализация/ Data, Culture and Visualization</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Магистр</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Креативные технологии / Creative Technologies</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Общеуниверситетские дисциплины мировоззренческого модуля</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4,0,0,0,0,0,0,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>07.0.8.1.20</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/application/discipline_code/discipline_bank_updated.xlsx
+++ b/application/discipline_code/discipline_bank_updated.xlsx
@@ -1,150 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProj\analytics_backend_2\application\discipline_code\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFA54A5-6E2F-4199-911C-98B4E9BA72B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>EP_ID</t>
-  </si>
-  <si>
-    <t>SUBJECT_CODE</t>
-  </si>
-  <si>
-    <t>CYCLE</t>
-  </si>
-  <si>
-    <t>MODULE_ID</t>
-  </si>
-  <si>
-    <t>COMPONENT</t>
-  </si>
-  <si>
-    <t>ISU_SUBJECT_ID</t>
-  </si>
-  <si>
-    <t>SUBJECT</t>
-  </si>
-  <si>
-    <t>IMPLEMENTOR_ID</t>
-  </si>
-  <si>
-    <t>IMPLEMENTOR</t>
-  </si>
-  <si>
-    <t>SUBFIELDCODE</t>
-  </si>
-  <si>
-    <t>MAJOR_NAME</t>
-  </si>
-  <si>
-    <t>OP_ID</t>
-  </si>
-  <si>
-    <t>SUBFIELDNAME</t>
-  </si>
-  <si>
-    <t>FACULTY_ID</t>
-  </si>
-  <si>
-    <t>FACULTY</t>
-  </si>
-  <si>
-    <t>OGNP_ID</t>
-  </si>
-  <si>
-    <t>OGNP</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t>DEGREE</t>
-  </si>
-  <si>
-    <t>SEMESTER</t>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-  </si>
-  <si>
-    <t>CREDITS</t>
-  </si>
-  <si>
-    <t>LECTURE</t>
-  </si>
-  <si>
-    <t>PRACTICE</t>
-  </si>
-  <si>
-    <t>LAB</t>
-  </si>
-  <si>
-    <t>EXAM</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>DIFF</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>SRS</t>
-  </si>
-  <si>
-    <t>ISOPTION</t>
-  </si>
-  <si>
-    <t>SEM_INFO</t>
-  </si>
-  <si>
-    <t>DIS_CODE</t>
-  </si>
-  <si>
-    <t>VERSION</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -159,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -178,24 +57,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -483,117 +421,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>EP_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SUBJECT_CODE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CYCLE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MODULE_ID</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>COMPONENT</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ISU_SUBJECT_ID</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SUBJECT</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>IMPLEMENTOR_ID</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IMPLEMENTOR</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SUBFIELDCODE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MAJOR_NAME</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>OP_ID</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>SUBFIELDNAME</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>FACULTY_ID</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>FACULTY</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>OGNP_ID</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>OGNP</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>DEGREE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SEMESTER</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>LANGUAGE</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>CREDITS</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>LECTURE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>PRACTICE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>LAB</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>EXAM</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>DIFF</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>SRS</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>ISOPTION</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>SEM_INFO</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>DIS_CODE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>VERSION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10572</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Блок 1. Модули (дисциплины)</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Универсальный модуль</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>25454</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>История</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>734</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>факультет технологического менеджмента и инноваций</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>16.03.01</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Техническая физика</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>6980</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Нанофотоника и квантовая оптика</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>768</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>физико-технический факультет</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Фотоника</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Академический бакалавр</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Русский</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" t="n">
+        <v>26</v>
+      </c>
+      <c r="X2" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="Z2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Required</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0,3,0,0,0,0,0,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>06.0.0.0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/application/discipline_code/discipline_bank_updated.xlsx
+++ b/application/discipline_code/discipline_bank_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProj\analytics_backend_2\application\discipline_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977D2991-C268-4A19-AD66-B60A1634350A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9291472-8DB7-4BC6-ADF9-5B87A5183F63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/application/discipline_code/discipline_bank_updated.xlsx
+++ b/application/discipline_code/discipline_bank_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProj\analytics_backend_2\application\discipline_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9291472-8DB7-4BC6-ADF9-5B87A5183F63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115486DA-1156-4FE3-B580-409623D81554}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
